--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1741549.916752699</v>
+        <v>1739005.324058415</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283177</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663199</v>
+        <v>158.9209832102733</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>68.11693918766126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>107.5567297256354</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>83.9063575900044</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -859,10 +859,10 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>34.10833718734057</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>181.4110240641944</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>58.50845131943137</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -984,10 +984,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074789</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>33.61190754837518</v>
+        <v>61.80969708109227</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>40.05337266685065</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589147</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>72.89889574101095</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>271.4863045970674</v>
+        <v>229.9099569984747</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1212,19 +1212,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>38.75133947282607</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>20.27697994470972</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,10 +1275,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>9.854692234073061</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>252.3685669536107</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>253.2918698186444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>153.034789258165</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>47.1661113658481</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>121.8455631377185</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>23.62554568141225</v>
       </c>
       <c r="E25" t="n">
-        <v>4.019807611473823</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016457</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016433</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>40.6225301034192</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057989</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>21.35866177150533</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,16 +3004,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>185.3892167411503</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>61.44013021076765</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>42.53134576113725</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3317,7 +3317,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>9.14614278817986</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205764035</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788181212</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>211.817204675944</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>9.146142788183026</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>32.84316668127961</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414.0172523312947</v>
+        <v>322.4426321268587</v>
       </c>
       <c r="C2" t="n">
-        <v>414.0172523312947</v>
+        <v>322.4426321268587</v>
       </c>
       <c r="D2" t="n">
-        <v>224.59746731481</v>
+        <v>322.4426321268587</v>
       </c>
       <c r="E2" t="n">
-        <v>224.59746731481</v>
+        <v>322.4426321268587</v>
       </c>
       <c r="F2" t="n">
-        <v>217.6519665656065</v>
+        <v>315.4971313776553</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897903</v>
+        <v>302.266996801839</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644754</v>
@@ -4346,34 +4346,34 @@
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262252</v>
+        <v>672.2420264262254</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262252</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262252</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262252</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262252</v>
+        <v>322.4426321268587</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262252</v>
+        <v>322.4426321268587</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262252</v>
+        <v>322.4426321268587</v>
       </c>
       <c r="Y2" t="n">
-        <v>603.4370373477794</v>
+        <v>322.4426321268587</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>475.9286670932347</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C3" t="n">
-        <v>301.4756378121077</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>152.5412281508565</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>152.5412281508565</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
         <v>15.00204697330559</v>
@@ -4416,43 +4416,43 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>568.2946462874022</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652795</v>
+        <v>378.8748612709174</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652795</v>
+        <v>378.8748612709174</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652795</v>
+        <v>378.8748612709174</v>
       </c>
       <c r="X3" t="n">
-        <v>665.3484521097195</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="Y3" t="n">
-        <v>475.9286670932347</v>
+        <v>189.4550762544326</v>
       </c>
     </row>
     <row r="4">
@@ -4492,7 +4492,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
         <v>42.98993985170716</v>
@@ -4507,7 +4507,7 @@
         <v>49.45491281910415</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330559</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="R4" t="n">
         <v>15.00204697330559</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1337.763483862069</v>
+        <v>517.0190480290731</v>
       </c>
       <c r="C5" t="n">
-        <v>968.8009669216572</v>
+        <v>517.0190480290731</v>
       </c>
       <c r="D5" t="n">
-        <v>610.5352683149067</v>
+        <v>517.0190480290731</v>
       </c>
       <c r="E5" t="n">
-        <v>224.7470157166625</v>
+        <v>517.0190480290731</v>
       </c>
       <c r="F5" t="n">
-        <v>217.801514967459</v>
+        <v>106.0331432394656</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675761</v>
+        <v>93.65750209396116</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675761</v>
+        <v>93.65750209396116</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017216</v>
+        <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746978</v>
+        <v>277.9807166746991</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030758</v>
+        <v>521.2049416030778</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709168</v>
+        <v>823.5081935709198</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.31683658275</v>
+        <v>1135.316836582754</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079237</v>
+        <v>1416.413635079242</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332755</v>
+        <v>1621.822248332761</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837881</v>
+        <v>1727.902815837887</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837881</v>
+        <v>1703.718566540656</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837881</v>
+        <v>1703.718566540656</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837881</v>
+        <v>1491.859231677091</v>
       </c>
       <c r="U5" t="n">
-        <v>1727.902815837881</v>
+        <v>1238.221267348456</v>
       </c>
       <c r="V5" t="n">
-        <v>1727.902815837881</v>
+        <v>907.1583800048849</v>
       </c>
       <c r="W5" t="n">
-        <v>1727.902815837881</v>
+        <v>907.1583800048849</v>
       </c>
       <c r="X5" t="n">
-        <v>1727.902815837881</v>
+        <v>907.1583800048849</v>
       </c>
       <c r="Y5" t="n">
-        <v>1337.763483862069</v>
+        <v>517.0190480290731</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>800.7994951237466</v>
+        <v>342.7299209834645</v>
       </c>
       <c r="C6" t="n">
-        <v>626.3464658426196</v>
+        <v>342.7299209834645</v>
       </c>
       <c r="D6" t="n">
-        <v>477.4120561813683</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="E6" t="n">
-        <v>318.1746011759128</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="F6" t="n">
-        <v>171.6400432027978</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787508</v>
+        <v>61.6678846478755</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806058</v>
+        <v>186.1577239806067</v>
       </c>
       <c r="L6" t="n">
-        <v>399.872217118997</v>
+        <v>399.8722171189985</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223488</v>
+        <v>668.623818522351</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352462</v>
+        <v>958.8971200352491</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228317</v>
+        <v>1202.22068622832</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639506</v>
+        <v>1378.17623363951</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906547</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906547</v>
+        <v>1401.100270703775</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906547</v>
+        <v>1258.309378699371</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906547</v>
+        <v>1062.768760419126</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906547</v>
+        <v>1062.768760419126</v>
       </c>
       <c r="V6" t="n">
-        <v>1210.726552674804</v>
+        <v>827.6166521873829</v>
       </c>
       <c r="W6" t="n">
-        <v>1210.726552674804</v>
+        <v>573.3792954591813</v>
       </c>
       <c r="X6" t="n">
-        <v>1176.775130908768</v>
+        <v>510.9452580035326</v>
       </c>
       <c r="Y6" t="n">
-        <v>969.0148321438146</v>
+        <v>510.9452580035326</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495857991</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495857991</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8190495857991</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="E7" t="n">
-        <v>221.905956003406</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="F7" t="n">
-        <v>75.01600850549565</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574666</v>
+        <v>64.24066662574708</v>
       </c>
       <c r="L7" t="n">
-        <v>132.129986158411</v>
+        <v>132.1299861584118</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347965</v>
+        <v>206.9680378347977</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195357</v>
+        <v>287.8841338195373</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934706</v>
+        <v>342.3101561934724</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857991</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857991</v>
+        <v>332.5350520040927</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857991</v>
+        <v>332.5350520040927</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857991</v>
+        <v>332.5350520040927</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495857991</v>
+        <v>108.1933045400011</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495857991</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495857991</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495857991</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495857991</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495857991</v>
+        <v>34.55805631675774</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1484.628284290972</v>
+        <v>1005.978835265362</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.399693788884</v>
+        <v>773.7465554689227</v>
       </c>
       <c r="D8" t="n">
-        <v>852.1339951821336</v>
+        <v>773.7465554689227</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838894</v>
+        <v>773.7465554689227</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428181</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809315</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301902</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232728</v>
+        <v>366.8168396232723</v>
       </c>
       <c r="L8" t="n">
-        <v>669.587892771188</v>
+        <v>669.5878927711875</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904657</v>
+        <v>1782.718007305295</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561087</v>
+        <v>1782.718007305295</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.628284290972</v>
+        <v>1782.718007305295</v>
       </c>
       <c r="X8" t="n">
-        <v>1484.628284290972</v>
+        <v>1782.718007305295</v>
       </c>
       <c r="Y8" t="n">
-        <v>1484.628284290972</v>
+        <v>1392.578675329484</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.528648459042</v>
+        <v>514.8569251016122</v>
       </c>
       <c r="C9" t="n">
-        <v>498.075619177915</v>
+        <v>475.7141579573434</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166637</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112082</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809315</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562335</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N9" t="n">
         <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.22704733349</v>
+        <v>1734.238298972666</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.22704733349</v>
+        <v>1595.273638474384</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.22704733349</v>
+        <v>1400.56331694836</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1172.461727081625</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>937.3096188498819</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>683.0722621216803</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>683.0722621216803</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791101</v>
+        <v>683.0722621216803</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470406007</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="C10" t="n">
-        <v>351.3531641126938</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="D10" t="n">
-        <v>201.236524700358</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="E10" t="n">
-        <v>53.32343111796493</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="F10" t="n">
-        <v>53.32343111796493</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406007</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406007</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406007</v>
+        <v>298.2869409356797</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406007</v>
+        <v>298.2869409356797</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406007</v>
+        <v>298.2869409356797</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406007</v>
+        <v>298.2869409356797</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470406007</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470406007</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470406007</v>
+        <v>43.3691965380931</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,10 +5054,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5066,13 +5066,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2332.274843099483</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2332.274843099483</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2043.199616443681</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1788.515128237794</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1271.108407302816</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,10 +5738,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
@@ -5777,13 +5777,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>991.7436897307826</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>822.8075068028758</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>672.69086739054</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797189</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1394.184733704552</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1173.392154561022</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,52 +5975,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876706</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597637</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597637</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038357</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797759</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359458</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614405</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179104</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.46108051051</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>821.2910552385083</v>
       </c>
     </row>
     <row r="29">
@@ -6443,49 +6443,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958739</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>633.992644467967</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369644</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261136</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="32">
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>527.7722521572603</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>527.7722521572603</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578601</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6932,19 +6932,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6965,10 +6965,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7017,19 +7017,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597624</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597624</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876706</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597637</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597637</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597637</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597637</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746437</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168418</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782971</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038358</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797761</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359458</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614405</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179104</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597624</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597624</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7579,40 +7579,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,10 +7634,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797189</v>
@@ -7673,13 +7673,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876725</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597656</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782988</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038375</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580264</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235168</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.50678425811</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602307</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.74706939642</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.32989935946</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614423</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179122</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
   </sheetData>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>32.89260457059976</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>65.54986409392978</v>
       </c>
     </row>
     <row r="14">
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864788527</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.8601746357965</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>24.58839950885069</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>124.9899273368001</v>
       </c>
       <c r="E25" t="n">
-        <v>142.4141550350953</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>211.5151132204088</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>124.5310997715149</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>127.256811246707</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>40.32043864788687</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>118.3918499711696</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>102.889702261794</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038566</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038431</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038565</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>40.32043864788398</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.4693302300293</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>185.7414866708152</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="6">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26314,13 @@
         <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583915</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583915</v>
-      </c>
       <c r="E2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907539</v>
@@ -26329,31 +26329,31 @@
         <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="I2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.954790754</v>
-      </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907542</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253113</v>
+        <v>270592.362025313</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231953</v>
+        <v>115410.0540231931</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742643</v>
+        <v>601443.2075742648</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881949</v>
+        <v>62913.63765881985</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197543</v>
+        <v>27875.25362197483</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515978</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263465</v>
+        <v>206604.4229263461</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888975</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26445,10 +26445,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
+        <v>16046.58397189197</v>
+      </c>
+      <c r="M4" t="n">
         <v>16046.58397189196</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16046.58397189192</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26470,10 +26470,10 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936811</v>
+        <v>76435.73471936824</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.0818558723</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-372676.0731081977</v>
       </c>
       <c r="C6" t="n">
-        <v>570.6749873654917</v>
+        <v>570.6749873641966</v>
       </c>
       <c r="D6" t="n">
-        <v>179391.0686904265</v>
+        <v>179391.0686904285</v>
       </c>
       <c r="E6" t="n">
-        <v>-173788.3665793093</v>
+        <v>-173823.1045047455</v>
       </c>
       <c r="F6" t="n">
-        <v>427654.8409949547</v>
+        <v>427620.1030695193</v>
       </c>
       <c r="G6" t="n">
-        <v>427654.8409949549</v>
+        <v>427620.1030695192</v>
       </c>
       <c r="H6" t="n">
-        <v>427654.8409949549</v>
+        <v>427620.103069519</v>
       </c>
       <c r="I6" t="n">
-        <v>427654.8409949552</v>
+        <v>427620.1030695193</v>
       </c>
       <c r="J6" t="n">
-        <v>378589.8962664102</v>
+        <v>378555.1583409745</v>
       </c>
       <c r="K6" t="n">
-        <v>364741.2033361354</v>
+        <v>364706.4654106993</v>
       </c>
       <c r="L6" t="n">
-        <v>399779.5873729795</v>
+        <v>399744.8494475443</v>
       </c>
       <c r="M6" t="n">
-        <v>270508.4604433573</v>
+        <v>270473.7225179212</v>
       </c>
       <c r="N6" t="n">
-        <v>427654.840994955</v>
+        <v>427620.1030695189</v>
       </c>
       <c r="O6" t="n">
-        <v>427654.8409949547</v>
+        <v>427620.1030695194</v>
       </c>
       <c r="P6" t="n">
-        <v>427654.8409949551</v>
+        <v>427620.1030695193</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950607</v>
+        <v>758.899629295062</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594701</v>
+        <v>431.9757039594718</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261638</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26808,13 +26808,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099649</v>
@@ -26960,16 +26960,16 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821561</v>
+        <v>210.4296883821575</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262448</v>
+        <v>94.81103524262278</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039888</v>
+        <v>514.2648358039894</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931502</v>
+        <v>244.4501167931519</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666943</v>
+        <v>110.139252766692</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734848</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931502</v>
+        <v>244.4501167931516</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666943</v>
+        <v>110.139252766692</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734848</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931502</v>
+        <v>244.4501167931519</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666943</v>
+        <v>110.139252766692</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734848</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399025</v>
+        <v>157.972842895949</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27436,7 +27436,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>318.1209994683923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>87.8528680663658</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.338181243771</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>121.8666276134731</v>
+        <v>18.24739803715755</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098449</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.57770336425668</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>98.71403242334981</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>230.840860669855</v>
       </c>
       <c r="H5" t="n">
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760056</v>
+        <v>34.34943640816897</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425932</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937521</v>
+        <v>43.32085084937511</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074807</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>172.1610776551023</v>
+        <v>143.9632881223852</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>126.5690991633711</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304061</v>
+        <v>30.24193919304044</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589169</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>213.3454877503034</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>93.78658717394012</v>
+        <v>135.3629347725328</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>133.9571595154897</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5435940233588</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,10 +27995,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>156.5968088768587</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>34.15443138298028</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29727,7 +29727,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-4.796661474883757e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085668</v>
+        <v>3.050852781085674</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429361</v>
+        <v>31.24454604429367</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428054</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.93731622867</v>
+        <v>258.9373162286705</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520265</v>
+        <v>388.0799144520271</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511771</v>
+        <v>481.4474502511779</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968093</v>
+        <v>535.7030533968102</v>
       </c>
       <c r="N5" t="n">
-        <v>544.371288861069</v>
+        <v>544.37128886107</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191484</v>
+        <v>514.0343715191493</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860958</v>
+        <v>438.7164434860966</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634652</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098728</v>
+        <v>191.6431310098731</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898974</v>
+        <v>69.52130774898987</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920252</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868534</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030885</v>
+        <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403513</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062479</v>
+        <v>56.20152915062489</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475934</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316627</v>
+        <v>263.5887514316632</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721885</v>
+        <v>354.4276051721891</v>
       </c>
       <c r="M6" t="n">
-        <v>413.600297965808</v>
+        <v>413.6002979658087</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468661</v>
+        <v>424.5470671468668</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374449</v>
+        <v>388.3776244374455</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872486</v>
+        <v>311.7072835872492</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547495</v>
+        <v>208.3680642547499</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947717</v>
+        <v>30.32018801947722</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378873</v>
+        <v>6.579516597378885</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757162</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236995</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734527</v>
+        <v>41.15475366734534</v>
       </c>
       <c r="J7" t="n">
-        <v>96.7534822463555</v>
+        <v>96.75348224635567</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260799</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162528</v>
+        <v>203.4597465162532</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399136</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528486</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275345</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514997</v>
+        <v>165.5147650515</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235542</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054702</v>
+        <v>61.53307486054714</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391198</v>
+        <v>23.84935392391202</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830793</v>
+        <v>5.847259438830804</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656342</v>
+        <v>0.07464586517656356</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,46 +31595,46 @@
         <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M10" t="n">
         <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>430.4001870301144</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>202.2352659288679</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31865,7 +31865,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32078,7 +32078,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,13 +32309,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,31 +32546,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,16 +32783,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>209.2370040367367</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>139.5228722182826</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>301.1823051500296</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33737,22 +33737,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>550.5977692975237</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33974,10 +33974,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,22 +34442,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500036</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34469,7 +34469,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198371</v>
+        <v>77.89141170198417</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070459</v>
+        <v>167.9900634070466</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811898</v>
+        <v>245.6810352811907</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695366</v>
+        <v>305.3568201695375</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644781</v>
+        <v>314.958225264479</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974617</v>
+        <v>283.9361600974626</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308263</v>
+        <v>207.4834477308271</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890157</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092674</v>
+        <v>27.38366498092702</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573037</v>
+        <v>125.7473124573042</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923143</v>
+        <v>215.873225392315</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437897</v>
+        <v>271.4662640437904</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635328</v>
+        <v>293.2053550635335</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930004</v>
+        <v>245.7813799930011</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729184</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872798</v>
+        <v>68.38629016872838</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554449</v>
+        <v>29.98243465554478</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501455</v>
+        <v>68.57507023501492</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230853</v>
+        <v>75.5939915923089</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761539</v>
+        <v>81.73343028761576</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569174</v>
+        <v>54.97578017569208</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235208</v>
+        <v>27.78676100235239</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>291.8458072502402</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>68.26085851453769</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578466</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>71.39556506237767</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096363</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
         <v>394.3420143191315</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>8.181160134949316</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>416.6233618831934</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,13 +37637,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295474</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899088</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295643</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38184,7 +38184,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899088</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
